--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Alejandro\08_Primer_VAR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B6921A-16B5-43E8-BED6-2C612CBE62F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CEF82B-D061-4168-8A26-7B0D7AAE36CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{31B8D244-E876-4963-B9DA-FF481F5057E3}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,10 +445,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
